--- a/biology/Zoologie/Dilophosaurus/Dilophosaurus.xlsx
+++ b/biology/Zoologie/Dilophosaurus/Dilophosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dilophosaure
 Le dilophosaure ou Dilophosaurus (« lézard à deux crêtes » en grec) est un genre éteint de grands dinosaures théropodes carnivores, découvert en Chine et en Arizona où il vivait au Jurassique inférieur, il y a environ entre 199 et 183 Ma (millions d'années), au cours des étages Sinémurien et Pliensbachien.
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesurait moins de 2 mètres de haut, 6 mètres de long et pesait 500 kilos. Son crâne possédait des articulations qui lui permettaient de plisser le nez et une paire de crêtes osseuses sur la tête (d’où son nom).
-Les crêtes du dilophosaure, pouvaient peut-être servir d’accessoires visuels de parade[1],[2]. Des études menées par Robert Gay tendent à montrer que ces crêtes étaient plus grandes chez un sexe que chez l'autre[3].
-C'est l'un des plus anciens grands dinosaures prédateurs. Sa gueule était particulièrement étroite et souple, ses dents pourtant ne semblent pas avoir été faites pour chasser de grandes proies : étroites et pointues[4] elles se seraient tout de suite brisées[5], à ce que pensent certains chercheurs, à vouloir mordre dans un os, mais on ne peut plus soutenir la théorie qui faisait de lui un charognard. Il est très vraisemblable qu'il tuait sa victime à l'aide des griffes qu'il portait aux pattes avant et arrière. Une telle morphologie « passe partout » permettait au dilophosaure de chasser autant des proies imposantes comme Plateosaurus que des proies beaucoup plus petites comme des petits mammifères et des lézards qu’il allait chercher dans les broussailles ou les crevasses des rochers.
+Les crêtes du dilophosaure, pouvaient peut-être servir d’accessoires visuels de parade,. Des études menées par Robert Gay tendent à montrer que ces crêtes étaient plus grandes chez un sexe que chez l'autre.
+C'est l'un des plus anciens grands dinosaures prédateurs. Sa gueule était particulièrement étroite et souple, ses dents pourtant ne semblent pas avoir été faites pour chasser de grandes proies : étroites et pointues elles se seraient tout de suite brisées, à ce que pensent certains chercheurs, à vouloir mordre dans un os, mais on ne peut plus soutenir la théorie qui faisait de lui un charognard. Il est très vraisemblable qu'il tuait sa victime à l'aide des griffes qu'il portait aux pattes avant et arrière. Une telle morphologie « passe partout » permettait au dilophosaure de chasser autant des proies imposantes comme Plateosaurus que des proies beaucoup plus petites comme des petits mammifères et des lézards qu’il allait chercher dans les broussailles ou les crevasses des rochers.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dilophosaure pourrait être un membre primitif du clade contenant à la fois les ceratosauriens et les tétanures. D'autre part, quelques paléontologues classent ce genre dans les célophysoïdes.
 </t>
@@ -577,10 +593,12 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sam Welles découvrit le premier spécimen de Dilophosaure durant l'été 1942[6]. Le spécimen fut ramené pour être nettoyé et reconstitué à Berkeley, où on lui donna le nom de Megalosaurus wetherilli[7]. En retournant au même endroit dix ans plus tard, Welles trouva un nouveau spécimen non loin de l'endroit de sa première découverte. Les spécimens furent plus tard rebaptisés Dilophosaurus, d'après la double crête qui était nettement visible sur le nouveau squelette[4],[7]. Il existe une autre espèce de Dilophosaure, le Dilophosaurus sinensis ("Dilophosaure chinois")[8], qui pourrait ou non appartenir à ce genre. Il pourrait être plus proche du théropode antarctique, le Cryolophosaurus, d'après le fait que l'extrémité antérieure de l'os jugal ne fait pas partie de la fenêtre antéorbitaire interne et que la rangée de dents de la mâchoire supérieure est totalement en avant de l'orbite et se termine avant le support vertical de l'os lacrymal. Cette espèce fut découverte dans la province du Yunnan en Chine, avec le prosauropode Yunnanosaurus, et fut plus tard décrite et nommée par Shaojin Hu, en 1993[9].
-Une troisième espèce, Dilophosaurus breedorunm, fut forgée par Welles et Pickering (1999). Cette espèce se fonde sur le spécimen à crêtes UCMP 77270. Le premier spécimen de Welles manquait de crêtes bien conservées, et celui-ci suggéra alors que les spécimens "crêtés" appartenaient à une espèce différente[1]. Il mourut avant d'avoir pu terminer son manuscrit qui le décrivait,  et le nom sortit finalement dans une publication distribuée par Pickering[10]. Cette espèce n'a pas été reconnue comme valide dans d'autres publications sur le genre[4],[11]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam Welles découvrit le premier spécimen de Dilophosaure durant l'été 1942. Le spécimen fut ramené pour être nettoyé et reconstitué à Berkeley, où on lui donna le nom de Megalosaurus wetherilli. En retournant au même endroit dix ans plus tard, Welles trouva un nouveau spécimen non loin de l'endroit de sa première découverte. Les spécimens furent plus tard rebaptisés Dilophosaurus, d'après la double crête qui était nettement visible sur le nouveau squelette,. Il existe une autre espèce de Dilophosaure, le Dilophosaurus sinensis ("Dilophosaure chinois"), qui pourrait ou non appartenir à ce genre. Il pourrait être plus proche du théropode antarctique, le Cryolophosaurus, d'après le fait que l'extrémité antérieure de l'os jugal ne fait pas partie de la fenêtre antéorbitaire interne et que la rangée de dents de la mâchoire supérieure est totalement en avant de l'orbite et se termine avant le support vertical de l'os lacrymal. Cette espèce fut découverte dans la province du Yunnan en Chine, avec le prosauropode Yunnanosaurus, et fut plus tard décrite et nommée par Shaojin Hu, en 1993.
+Une troisième espèce, Dilophosaurus breedorunm, fut forgée par Welles et Pickering (1999). Cette espèce se fonde sur le spécimen à crêtes UCMP 77270. Le premier spécimen de Welles manquait de crêtes bien conservées, et celui-ci suggéra alors que les spécimens "crêtés" appartenaient à une espèce différente. Il mourut avant d'avoir pu terminer son manuscrit qui le décrivait,  et le nom sortit finalement dans une publication distribuée par Pickering. Cette espèce n'a pas été reconnue comme valide dans d'autres publications sur le genre,
 .
 </t>
         </is>
@@ -610,9 +628,11 @@
           <t>Dilophosaurus dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dilophosaurus apparaît dans le film de 1993 Jurassic Park et dans le roman original de Michael Crichton. La version filmée montre un Dilophosaurus affublé une membrane rétractile au cou similaire à celle de Chlamydosaurus ou lézard à collerette, et possédant la capacité d'envoyer aux yeux un venin aveuglant pour paralyser ses victimes. Il n'existe aucune preuve que Dilophosaurus ait pu cracher du venin, ni qu'il ait possédé une collerette aux couleurs vives[12], ce qu'a reconnu M. Crichton, en invoquant la liberté de l'artiste[13], puisqu'il a lui-même réécrit le scénario du roman pour le film. Dans le roman, l'animal est très différent, il possède toujours la capacité de cracher du venin, mais est en dehors de ça très fidèle à la réalité en termes de taille et d'apparence, et dans le livre original l'écrivain lui confère une couleur jaune avec des taches comme celles d'un léopard tandis que dans le film de Steven Spielberg, Dilophosaurus a été réduit à 1 mètre de haut et 1,5 mètre de long, beaucoup plus petit qu'en réalité.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dilophosaurus apparaît dans le film de 1993 Jurassic Park et dans le roman original de Michael Crichton. La version filmée montre un Dilophosaurus affublé une membrane rétractile au cou similaire à celle de Chlamydosaurus ou lézard à collerette, et possédant la capacité d'envoyer aux yeux un venin aveuglant pour paralyser ses victimes. Il n'existe aucune preuve que Dilophosaurus ait pu cracher du venin, ni qu'il ait possédé une collerette aux couleurs vives, ce qu'a reconnu M. Crichton, en invoquant la liberté de l'artiste, puisqu'il a lui-même réécrit le scénario du roman pour le film. Dans le roman, l'animal est très différent, il possède toujours la capacité de cracher du venin, mais est en dehors de ça très fidèle à la réalité en termes de taille et d'apparence, et dans le livre original l'écrivain lui confère une couleur jaune avec des taches comme celles d'un léopard tandis que dans le film de Steven Spielberg, Dilophosaurus a été réduit à 1 mètre de haut et 1,5 mètre de long, beaucoup plus petit qu'en réalité.
 Dilophosaurus apparaît dans plusieurs jeux de la franchise Jurassic Park : Jurassic Park : Operation Genesis, Jurassic Park Builder, Jurassic World le jeu ou Jurassic World Evolution (2018), tous le faisant apparaître dans sa forme erronée. Dans le jeu Jurassic Park : The Game, les notes du Dr Laura Sorkin évoquent que cela vient de l'ADN de grenouilles inséré dans son génome, qui serait à l'origine de son physique actuel.
 Dilophosaurus apparaît dans le jeu Ark Survival Evolved. Il est de petite taille et possède les propriétés de celui présent dans Jurassic Park avec des proto-plumes.
 Le jeu de gestion Préhistoric Kingdom pourra posséder un Dilophosaurus wetherilli en tant que pensionnaire.
